--- a/CURSO_MASTER/Test_uno/LoginData3.xlsx
+++ b/CURSO_MASTER/Test_uno/LoginData3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="254">
   <si>
     <t>admin@yourstore.com</t>
   </si>
@@ -354,6 +354,438 @@
   </si>
   <si>
     <t>rodri@gmail.com28</t>
+  </si>
+  <si>
+    <t>rodrigo29</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com24</t>
+  </si>
+  <si>
+    <t>rodrigo30</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com25</t>
+  </si>
+  <si>
+    <t>rodrigo31</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com26</t>
+  </si>
+  <si>
+    <t>rodrigo32</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com27</t>
+  </si>
+  <si>
+    <t>rodrigo33</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com28</t>
+  </si>
+  <si>
+    <t>rodrigo34</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com29</t>
+  </si>
+  <si>
+    <t>rodrigo35</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com30</t>
+  </si>
+  <si>
+    <t>rodrigo36</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com31</t>
+  </si>
+  <si>
+    <t>rodrigo37</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com32</t>
+  </si>
+  <si>
+    <t>rodrigo38</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com33</t>
+  </si>
+  <si>
+    <t>rodrigo39</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com34</t>
+  </si>
+  <si>
+    <t>rodrigo40</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com35</t>
+  </si>
+  <si>
+    <t>rodrigo41</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com36</t>
+  </si>
+  <si>
+    <t>rodrigo42</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com37</t>
+  </si>
+  <si>
+    <t>rodrigo43</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com38</t>
+  </si>
+  <si>
+    <t>rodrigo44</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com39</t>
+  </si>
+  <si>
+    <t>rodrigo45</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com40</t>
+  </si>
+  <si>
+    <t>rodrigo46</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com41</t>
+  </si>
+  <si>
+    <t>rodrigo47</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com42</t>
+  </si>
+  <si>
+    <t>rodrigo48</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com43</t>
+  </si>
+  <si>
+    <t>rodrigo49</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com44</t>
+  </si>
+  <si>
+    <t>rodrigo50</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com45</t>
+  </si>
+  <si>
+    <t>rodrigo51</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com46</t>
+  </si>
+  <si>
+    <t>rodrigo52</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com47</t>
+  </si>
+  <si>
+    <t>rodrigo53</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com48</t>
+  </si>
+  <si>
+    <t>rodrigo54</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com49</t>
+  </si>
+  <si>
+    <t>rodrigo55</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com50</t>
+  </si>
+  <si>
+    <t>rodrigo56</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com51</t>
+  </si>
+  <si>
+    <t>rodrigo57</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com52</t>
+  </si>
+  <si>
+    <t>rodrigo58</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com53</t>
+  </si>
+  <si>
+    <t>rodrigo59</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com54</t>
+  </si>
+  <si>
+    <t>rodrigo60</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com55</t>
+  </si>
+  <si>
+    <t>rodrigo61</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com56</t>
+  </si>
+  <si>
+    <t>rodrigo62</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com57</t>
+  </si>
+  <si>
+    <t>rodrigo63</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com58</t>
+  </si>
+  <si>
+    <t>rodrigo64</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com59</t>
+  </si>
+  <si>
+    <t>rodrigo65</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com60</t>
+  </si>
+  <si>
+    <t>rodrigo66</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com61</t>
+  </si>
+  <si>
+    <t>rodrigo67</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com62</t>
+  </si>
+  <si>
+    <t>rodrigo68</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com63</t>
+  </si>
+  <si>
+    <t>rodrigo69</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com64</t>
+  </si>
+  <si>
+    <t>rodrigo70</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com65</t>
+  </si>
+  <si>
+    <t>rodrigo71</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com66</t>
+  </si>
+  <si>
+    <t>rodrigo72</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com67</t>
+  </si>
+  <si>
+    <t>rodrigo73</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com68</t>
+  </si>
+  <si>
+    <t>rodrigo74</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com69</t>
+  </si>
+  <si>
+    <t>rodrigo75</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com70</t>
+  </si>
+  <si>
+    <t>rodrigo76</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com71</t>
+  </si>
+  <si>
+    <t>rodrigo77</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com72</t>
+  </si>
+  <si>
+    <t>rodrigo78</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com73</t>
+  </si>
+  <si>
+    <t>rodrigo79</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com74</t>
+  </si>
+  <si>
+    <t>rodrigo80</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com75</t>
+  </si>
+  <si>
+    <t>rodrigo81</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com76</t>
+  </si>
+  <si>
+    <t>rodrigo82</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com77</t>
+  </si>
+  <si>
+    <t>rodrigo83</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com78</t>
+  </si>
+  <si>
+    <t>rodrigo84</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com79</t>
+  </si>
+  <si>
+    <t>rodrigo85</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com80</t>
+  </si>
+  <si>
+    <t>rodrigo86</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com81</t>
+  </si>
+  <si>
+    <t>rodrigo87</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com82</t>
+  </si>
+  <si>
+    <t>rodrigo88</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com83</t>
+  </si>
+  <si>
+    <t>rodrigo89</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com84</t>
+  </si>
+  <si>
+    <t>rodrigo90</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com85</t>
+  </si>
+  <si>
+    <t>rodrigo91</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com86</t>
+  </si>
+  <si>
+    <t>rodrigo92</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com87</t>
+  </si>
+  <si>
+    <t>rodrigo93</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com88</t>
+  </si>
+  <si>
+    <t>rodrigo94</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com89</t>
+  </si>
+  <si>
+    <t>rodrigo95</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com90</t>
+  </si>
+  <si>
+    <t>rodrigo96</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com91</t>
+  </si>
+  <si>
+    <t>rodrigo97</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com92</t>
+  </si>
+  <si>
+    <t>rodrigo98</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com93</t>
+  </si>
+  <si>
+    <t>rodrigo99</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com94</t>
+  </si>
+  <si>
+    <t>rodrigo100</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com95</t>
   </si>
 </sst>
 </file>
@@ -682,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1251,6 +1683,1446 @@
         <v>109</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>120</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>136</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>140</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>142</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>144</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C48" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>152</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>154</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" t="s">
+        <v>53</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C52" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" t="s">
+        <v>53</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>158</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C53" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" t="s">
+        <v>53</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>160</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>162</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" t="s">
+        <v>53</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>164</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C56" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" t="s">
+        <v>53</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>166</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C57" t="s">
+        <v>53</v>
+      </c>
+      <c r="D57" t="s">
+        <v>53</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>168</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58" t="s">
+        <v>53</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>170</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C59" t="s">
+        <v>53</v>
+      </c>
+      <c r="D59" t="s">
+        <v>53</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>172</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C60" t="s">
+        <v>53</v>
+      </c>
+      <c r="D60" t="s">
+        <v>53</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>174</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C61" t="s">
+        <v>53</v>
+      </c>
+      <c r="D61" t="s">
+        <v>53</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>176</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C62" t="s">
+        <v>53</v>
+      </c>
+      <c r="D62" t="s">
+        <v>53</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>178</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C63" t="s">
+        <v>53</v>
+      </c>
+      <c r="D63" t="s">
+        <v>53</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>180</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C64" t="s">
+        <v>53</v>
+      </c>
+      <c r="D64" t="s">
+        <v>53</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>182</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C65" t="s">
+        <v>53</v>
+      </c>
+      <c r="D65" t="s">
+        <v>53</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>184</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C66" t="s">
+        <v>53</v>
+      </c>
+      <c r="D66" t="s">
+        <v>53</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>186</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C67" t="s">
+        <v>53</v>
+      </c>
+      <c r="D67" t="s">
+        <v>53</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>188</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C68" t="s">
+        <v>53</v>
+      </c>
+      <c r="D68" t="s">
+        <v>53</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>190</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C69" t="s">
+        <v>53</v>
+      </c>
+      <c r="D69" t="s">
+        <v>53</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>192</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C70" t="s">
+        <v>53</v>
+      </c>
+      <c r="D70" t="s">
+        <v>53</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>194</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C71" t="s">
+        <v>53</v>
+      </c>
+      <c r="D71" t="s">
+        <v>53</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>196</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C72" t="s">
+        <v>53</v>
+      </c>
+      <c r="D72" t="s">
+        <v>53</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>198</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C73" t="s">
+        <v>53</v>
+      </c>
+      <c r="D73" t="s">
+        <v>53</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>200</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C74" t="s">
+        <v>53</v>
+      </c>
+      <c r="D74" t="s">
+        <v>53</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>202</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C75" t="s">
+        <v>53</v>
+      </c>
+      <c r="D75" t="s">
+        <v>53</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>204</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C76" t="s">
+        <v>53</v>
+      </c>
+      <c r="D76" t="s">
+        <v>53</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>206</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C77" t="s">
+        <v>53</v>
+      </c>
+      <c r="D77" t="s">
+        <v>53</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>208</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C78" t="s">
+        <v>53</v>
+      </c>
+      <c r="D78" t="s">
+        <v>53</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>210</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C79" t="s">
+        <v>53</v>
+      </c>
+      <c r="D79" t="s">
+        <v>53</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>212</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C80" t="s">
+        <v>53</v>
+      </c>
+      <c r="D80" t="s">
+        <v>53</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>214</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C81" t="s">
+        <v>53</v>
+      </c>
+      <c r="D81" t="s">
+        <v>53</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>216</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C82" t="s">
+        <v>53</v>
+      </c>
+      <c r="D82" t="s">
+        <v>53</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>218</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C83" t="s">
+        <v>53</v>
+      </c>
+      <c r="D83" t="s">
+        <v>53</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>220</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C84" t="s">
+        <v>53</v>
+      </c>
+      <c r="D84" t="s">
+        <v>53</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>222</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C85" t="s">
+        <v>53</v>
+      </c>
+      <c r="D85" t="s">
+        <v>53</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>224</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C86" t="s">
+        <v>53</v>
+      </c>
+      <c r="D86" t="s">
+        <v>53</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>226</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C87" t="s">
+        <v>53</v>
+      </c>
+      <c r="D87" t="s">
+        <v>53</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>228</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C88" t="s">
+        <v>53</v>
+      </c>
+      <c r="D88" t="s">
+        <v>53</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>230</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C89" t="s">
+        <v>53</v>
+      </c>
+      <c r="D89" t="s">
+        <v>53</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>232</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C90" t="s">
+        <v>53</v>
+      </c>
+      <c r="D90" t="s">
+        <v>53</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>234</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C91" t="s">
+        <v>53</v>
+      </c>
+      <c r="D91" t="s">
+        <v>53</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>236</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C92" t="s">
+        <v>53</v>
+      </c>
+      <c r="D92" t="s">
+        <v>53</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>238</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C93" t="s">
+        <v>53</v>
+      </c>
+      <c r="D93" t="s">
+        <v>53</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>240</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C94" t="s">
+        <v>53</v>
+      </c>
+      <c r="D94" t="s">
+        <v>53</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>242</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C95" t="s">
+        <v>53</v>
+      </c>
+      <c r="D95" t="s">
+        <v>53</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>244</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C96" t="s">
+        <v>53</v>
+      </c>
+      <c r="D96" t="s">
+        <v>53</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>246</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C97" t="s">
+        <v>53</v>
+      </c>
+      <c r="D97" t="s">
+        <v>53</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>248</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C98" t="s">
+        <v>53</v>
+      </c>
+      <c r="D98" t="s">
+        <v>53</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>250</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C99" t="s">
+        <v>53</v>
+      </c>
+      <c r="D99" t="s">
+        <v>53</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>252</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C100" t="s">
+        <v>53</v>
+      </c>
+      <c r="D100" t="s">
+        <v>53</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F100" s="1" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1267,8 +3139,224 @@
     <hyperlink ref="E2:E28" r:id="rId9" display="rodri@gmail.com1"/>
     <hyperlink ref="F1" r:id="rId10"/>
     <hyperlink ref="F2:F28" r:id="rId11" display="rodri@gmail.com1"/>
+    <hyperlink ref="B29" r:id="rId12" display="demo3@gmail.com1"/>
+    <hyperlink ref="B30" r:id="rId13" display="demo3@gmail.com1"/>
+    <hyperlink ref="E29" r:id="rId14" display="rodri@gmail.com1"/>
+    <hyperlink ref="E30" r:id="rId15" display="rodri@gmail.com1"/>
+    <hyperlink ref="F29" r:id="rId16" display="rodri@gmail.com1"/>
+    <hyperlink ref="F30" r:id="rId17" display="rodri@gmail.com1"/>
+    <hyperlink ref="B31" r:id="rId18" display="demo3@gmail.com1"/>
+    <hyperlink ref="B34" r:id="rId19" display="demo3@gmail.com1"/>
+    <hyperlink ref="E31" r:id="rId20" display="rodri@gmail.com1"/>
+    <hyperlink ref="E34" r:id="rId21" display="rodri@gmail.com1"/>
+    <hyperlink ref="F31" r:id="rId22" display="rodri@gmail.com1"/>
+    <hyperlink ref="F34" r:id="rId23" display="rodri@gmail.com1"/>
+    <hyperlink ref="B32" r:id="rId24" display="demo3@gmail.com1"/>
+    <hyperlink ref="B35" r:id="rId25" display="demo3@gmail.com1"/>
+    <hyperlink ref="B33" r:id="rId26" display="demo3@gmail.com1"/>
+    <hyperlink ref="B36" r:id="rId27" display="demo3@gmail.com1"/>
+    <hyperlink ref="E32" r:id="rId28" display="rodri@gmail.com1"/>
+    <hyperlink ref="E35" r:id="rId29" display="rodri@gmail.com1"/>
+    <hyperlink ref="E33" r:id="rId30" display="rodri@gmail.com1"/>
+    <hyperlink ref="E36" r:id="rId31" display="rodri@gmail.com1"/>
+    <hyperlink ref="F32" r:id="rId32" display="rodri@gmail.com1"/>
+    <hyperlink ref="F35" r:id="rId33" display="rodri@gmail.com1"/>
+    <hyperlink ref="F33" r:id="rId34" display="rodri@gmail.com1"/>
+    <hyperlink ref="F36" r:id="rId35" display="rodri@gmail.com1"/>
+    <hyperlink ref="B37" r:id="rId36" display="demo3@gmail.com1"/>
+    <hyperlink ref="B38" r:id="rId37" display="demo3@gmail.com1"/>
+    <hyperlink ref="B39" r:id="rId38" display="demo3@gmail.com1"/>
+    <hyperlink ref="B40" r:id="rId39" display="demo3@gmail.com1"/>
+    <hyperlink ref="B41" r:id="rId40" display="demo3@gmail.com1"/>
+    <hyperlink ref="B42" r:id="rId41" display="demo3@gmail.com1"/>
+    <hyperlink ref="B43" r:id="rId42" display="demo3@gmail.com1"/>
+    <hyperlink ref="B44" r:id="rId43" display="demo3@gmail.com1"/>
+    <hyperlink ref="B45" r:id="rId44" display="demo3@gmail.com1"/>
+    <hyperlink ref="B46" r:id="rId45" display="demo3@gmail.com1"/>
+    <hyperlink ref="B47" r:id="rId46" display="demo3@gmail.com1"/>
+    <hyperlink ref="B48" r:id="rId47" display="demo3@gmail.com1"/>
+    <hyperlink ref="B49" r:id="rId48" display="demo3@gmail.com1"/>
+    <hyperlink ref="B50" r:id="rId49" display="demo3@gmail.com1"/>
+    <hyperlink ref="B51" r:id="rId50" display="demo3@gmail.com1"/>
+    <hyperlink ref="B52" r:id="rId51" display="demo3@gmail.com1"/>
+    <hyperlink ref="B53" r:id="rId52" display="demo3@gmail.com1"/>
+    <hyperlink ref="B54" r:id="rId53" display="demo3@gmail.com1"/>
+    <hyperlink ref="B55" r:id="rId54" display="demo3@gmail.com1"/>
+    <hyperlink ref="B56" r:id="rId55" display="demo3@gmail.com1"/>
+    <hyperlink ref="B57" r:id="rId56" display="demo3@gmail.com1"/>
+    <hyperlink ref="B58" r:id="rId57" display="demo3@gmail.com1"/>
+    <hyperlink ref="B59" r:id="rId58" display="demo3@gmail.com1"/>
+    <hyperlink ref="B60" r:id="rId59" display="demo3@gmail.com1"/>
+    <hyperlink ref="B61" r:id="rId60" display="demo3@gmail.com1"/>
+    <hyperlink ref="B62" r:id="rId61" display="demo3@gmail.com1"/>
+    <hyperlink ref="B63" r:id="rId62" display="demo3@gmail.com1"/>
+    <hyperlink ref="B64" r:id="rId63" display="demo3@gmail.com1"/>
+    <hyperlink ref="B65" r:id="rId64" display="demo3@gmail.com1"/>
+    <hyperlink ref="B66" r:id="rId65" display="demo3@gmail.com1"/>
+    <hyperlink ref="B67" r:id="rId66" display="demo3@gmail.com1"/>
+    <hyperlink ref="B68" r:id="rId67" display="demo3@gmail.com1"/>
+    <hyperlink ref="B69" r:id="rId68" display="demo3@gmail.com1"/>
+    <hyperlink ref="B70" r:id="rId69" display="demo3@gmail.com1"/>
+    <hyperlink ref="B71" r:id="rId70" display="demo3@gmail.com1"/>
+    <hyperlink ref="B72" r:id="rId71" display="demo3@gmail.com1"/>
+    <hyperlink ref="B73" r:id="rId72" display="demo3@gmail.com1"/>
+    <hyperlink ref="B74" r:id="rId73" display="demo3@gmail.com1"/>
+    <hyperlink ref="B75" r:id="rId74" display="demo3@gmail.com1"/>
+    <hyperlink ref="B76" r:id="rId75" display="demo3@gmail.com1"/>
+    <hyperlink ref="B77" r:id="rId76" display="demo3@gmail.com1"/>
+    <hyperlink ref="B78" r:id="rId77" display="demo3@gmail.com1"/>
+    <hyperlink ref="B79" r:id="rId78" display="demo3@gmail.com1"/>
+    <hyperlink ref="B80" r:id="rId79" display="demo3@gmail.com1"/>
+    <hyperlink ref="B81" r:id="rId80" display="demo3@gmail.com1"/>
+    <hyperlink ref="B82" r:id="rId81" display="demo3@gmail.com1"/>
+    <hyperlink ref="B83" r:id="rId82" display="demo3@gmail.com1"/>
+    <hyperlink ref="B84" r:id="rId83" display="demo3@gmail.com1"/>
+    <hyperlink ref="B85" r:id="rId84" display="demo3@gmail.com1"/>
+    <hyperlink ref="B86" r:id="rId85" display="demo3@gmail.com1"/>
+    <hyperlink ref="B87" r:id="rId86" display="demo3@gmail.com1"/>
+    <hyperlink ref="B88" r:id="rId87" display="demo3@gmail.com1"/>
+    <hyperlink ref="B89" r:id="rId88" display="demo3@gmail.com1"/>
+    <hyperlink ref="B90" r:id="rId89" display="demo3@gmail.com1"/>
+    <hyperlink ref="B91" r:id="rId90" display="demo3@gmail.com1"/>
+    <hyperlink ref="B92" r:id="rId91" display="demo3@gmail.com1"/>
+    <hyperlink ref="B93" r:id="rId92" display="demo3@gmail.com1"/>
+    <hyperlink ref="B94" r:id="rId93" display="demo3@gmail.com1"/>
+    <hyperlink ref="B95" r:id="rId94" display="demo3@gmail.com1"/>
+    <hyperlink ref="B96" r:id="rId95" display="demo3@gmail.com1"/>
+    <hyperlink ref="B97" r:id="rId96" display="demo3@gmail.com1"/>
+    <hyperlink ref="B98" r:id="rId97" display="demo3@gmail.com1"/>
+    <hyperlink ref="B99" r:id="rId98" display="demo3@gmail.com1"/>
+    <hyperlink ref="B100" r:id="rId99" display="demo3@gmail.com1"/>
+    <hyperlink ref="E37" r:id="rId100" display="rodri@gmail.com1"/>
+    <hyperlink ref="E38" r:id="rId101" display="rodri@gmail.com1"/>
+    <hyperlink ref="E39" r:id="rId102" display="rodri@gmail.com1"/>
+    <hyperlink ref="E40" r:id="rId103" display="rodri@gmail.com1"/>
+    <hyperlink ref="E41" r:id="rId104" display="rodri@gmail.com1"/>
+    <hyperlink ref="E42" r:id="rId105" display="rodri@gmail.com1"/>
+    <hyperlink ref="E43" r:id="rId106" display="rodri@gmail.com1"/>
+    <hyperlink ref="E44" r:id="rId107" display="rodri@gmail.com1"/>
+    <hyperlink ref="E45" r:id="rId108" display="rodri@gmail.com1"/>
+    <hyperlink ref="E46" r:id="rId109" display="rodri@gmail.com1"/>
+    <hyperlink ref="E47" r:id="rId110" display="rodri@gmail.com1"/>
+    <hyperlink ref="E48" r:id="rId111" display="rodri@gmail.com1"/>
+    <hyperlink ref="E49" r:id="rId112" display="rodri@gmail.com1"/>
+    <hyperlink ref="E50" r:id="rId113" display="rodri@gmail.com1"/>
+    <hyperlink ref="E51" r:id="rId114" display="rodri@gmail.com1"/>
+    <hyperlink ref="E52" r:id="rId115" display="rodri@gmail.com1"/>
+    <hyperlink ref="E53" r:id="rId116" display="rodri@gmail.com1"/>
+    <hyperlink ref="E54" r:id="rId117" display="rodri@gmail.com1"/>
+    <hyperlink ref="E55" r:id="rId118" display="rodri@gmail.com1"/>
+    <hyperlink ref="E56" r:id="rId119" display="rodri@gmail.com1"/>
+    <hyperlink ref="E57" r:id="rId120" display="rodri@gmail.com1"/>
+    <hyperlink ref="E58" r:id="rId121" display="rodri@gmail.com1"/>
+    <hyperlink ref="E59" r:id="rId122" display="rodri@gmail.com1"/>
+    <hyperlink ref="E60" r:id="rId123" display="rodri@gmail.com1"/>
+    <hyperlink ref="E61" r:id="rId124" display="rodri@gmail.com1"/>
+    <hyperlink ref="E62" r:id="rId125" display="rodri@gmail.com1"/>
+    <hyperlink ref="E63" r:id="rId126" display="rodri@gmail.com1"/>
+    <hyperlink ref="E64" r:id="rId127" display="rodri@gmail.com1"/>
+    <hyperlink ref="E65" r:id="rId128" display="rodri@gmail.com1"/>
+    <hyperlink ref="E66" r:id="rId129" display="rodri@gmail.com1"/>
+    <hyperlink ref="E67" r:id="rId130" display="rodri@gmail.com1"/>
+    <hyperlink ref="E68" r:id="rId131" display="rodri@gmail.com1"/>
+    <hyperlink ref="E69" r:id="rId132" display="rodri@gmail.com1"/>
+    <hyperlink ref="E70" r:id="rId133" display="rodri@gmail.com1"/>
+    <hyperlink ref="E71" r:id="rId134" display="rodri@gmail.com1"/>
+    <hyperlink ref="E72" r:id="rId135" display="rodri@gmail.com1"/>
+    <hyperlink ref="E73" r:id="rId136" display="rodri@gmail.com1"/>
+    <hyperlink ref="E74" r:id="rId137" display="rodri@gmail.com1"/>
+    <hyperlink ref="E75" r:id="rId138" display="rodri@gmail.com1"/>
+    <hyperlink ref="E76" r:id="rId139" display="rodri@gmail.com1"/>
+    <hyperlink ref="E77" r:id="rId140" display="rodri@gmail.com1"/>
+    <hyperlink ref="E78" r:id="rId141" display="rodri@gmail.com1"/>
+    <hyperlink ref="E79" r:id="rId142" display="rodri@gmail.com1"/>
+    <hyperlink ref="E80" r:id="rId143" display="rodri@gmail.com1"/>
+    <hyperlink ref="E81" r:id="rId144" display="rodri@gmail.com1"/>
+    <hyperlink ref="E82" r:id="rId145" display="rodri@gmail.com1"/>
+    <hyperlink ref="E83" r:id="rId146" display="rodri@gmail.com1"/>
+    <hyperlink ref="E84" r:id="rId147" display="rodri@gmail.com1"/>
+    <hyperlink ref="E85" r:id="rId148" display="rodri@gmail.com1"/>
+    <hyperlink ref="E86" r:id="rId149" display="rodri@gmail.com1"/>
+    <hyperlink ref="E87" r:id="rId150" display="rodri@gmail.com1"/>
+    <hyperlink ref="E88" r:id="rId151" display="rodri@gmail.com1"/>
+    <hyperlink ref="E89" r:id="rId152" display="rodri@gmail.com1"/>
+    <hyperlink ref="E90" r:id="rId153" display="rodri@gmail.com1"/>
+    <hyperlink ref="E91" r:id="rId154" display="rodri@gmail.com1"/>
+    <hyperlink ref="E92" r:id="rId155" display="rodri@gmail.com1"/>
+    <hyperlink ref="E93" r:id="rId156" display="rodri@gmail.com1"/>
+    <hyperlink ref="E94" r:id="rId157" display="rodri@gmail.com1"/>
+    <hyperlink ref="E95" r:id="rId158" display="rodri@gmail.com1"/>
+    <hyperlink ref="E96" r:id="rId159" display="rodri@gmail.com1"/>
+    <hyperlink ref="E97" r:id="rId160" display="rodri@gmail.com1"/>
+    <hyperlink ref="E98" r:id="rId161" display="rodri@gmail.com1"/>
+    <hyperlink ref="E99" r:id="rId162" display="rodri@gmail.com1"/>
+    <hyperlink ref="E100" r:id="rId163" display="rodri@gmail.com1"/>
+    <hyperlink ref="F37" r:id="rId164" display="rodri@gmail.com1"/>
+    <hyperlink ref="F38" r:id="rId165" display="rodri@gmail.com1"/>
+    <hyperlink ref="F39" r:id="rId166" display="rodri@gmail.com1"/>
+    <hyperlink ref="F40" r:id="rId167" display="rodri@gmail.com1"/>
+    <hyperlink ref="F41" r:id="rId168" display="rodri@gmail.com1"/>
+    <hyperlink ref="F42" r:id="rId169" display="rodri@gmail.com1"/>
+    <hyperlink ref="F43" r:id="rId170" display="rodri@gmail.com1"/>
+    <hyperlink ref="F44" r:id="rId171" display="rodri@gmail.com1"/>
+    <hyperlink ref="F45" r:id="rId172" display="rodri@gmail.com1"/>
+    <hyperlink ref="F46" r:id="rId173" display="rodri@gmail.com1"/>
+    <hyperlink ref="F47" r:id="rId174" display="rodri@gmail.com1"/>
+    <hyperlink ref="F48" r:id="rId175" display="rodri@gmail.com1"/>
+    <hyperlink ref="F49" r:id="rId176" display="rodri@gmail.com1"/>
+    <hyperlink ref="F50" r:id="rId177" display="rodri@gmail.com1"/>
+    <hyperlink ref="F51" r:id="rId178" display="rodri@gmail.com1"/>
+    <hyperlink ref="F52" r:id="rId179" display="rodri@gmail.com1"/>
+    <hyperlink ref="F53" r:id="rId180" display="rodri@gmail.com1"/>
+    <hyperlink ref="F54" r:id="rId181" display="rodri@gmail.com1"/>
+    <hyperlink ref="F55" r:id="rId182" display="rodri@gmail.com1"/>
+    <hyperlink ref="F56" r:id="rId183" display="rodri@gmail.com1"/>
+    <hyperlink ref="F57" r:id="rId184" display="rodri@gmail.com1"/>
+    <hyperlink ref="F58" r:id="rId185" display="rodri@gmail.com1"/>
+    <hyperlink ref="F59" r:id="rId186" display="rodri@gmail.com1"/>
+    <hyperlink ref="F60" r:id="rId187" display="rodri@gmail.com1"/>
+    <hyperlink ref="F61" r:id="rId188" display="rodri@gmail.com1"/>
+    <hyperlink ref="F62" r:id="rId189" display="rodri@gmail.com1"/>
+    <hyperlink ref="F63" r:id="rId190" display="rodri@gmail.com1"/>
+    <hyperlink ref="F64" r:id="rId191" display="rodri@gmail.com1"/>
+    <hyperlink ref="F65" r:id="rId192" display="rodri@gmail.com1"/>
+    <hyperlink ref="F66" r:id="rId193" display="rodri@gmail.com1"/>
+    <hyperlink ref="F67" r:id="rId194" display="rodri@gmail.com1"/>
+    <hyperlink ref="F68" r:id="rId195" display="rodri@gmail.com1"/>
+    <hyperlink ref="F69" r:id="rId196" display="rodri@gmail.com1"/>
+    <hyperlink ref="F70" r:id="rId197" display="rodri@gmail.com1"/>
+    <hyperlink ref="F71" r:id="rId198" display="rodri@gmail.com1"/>
+    <hyperlink ref="F72" r:id="rId199" display="rodri@gmail.com1"/>
+    <hyperlink ref="F73" r:id="rId200" display="rodri@gmail.com1"/>
+    <hyperlink ref="F74" r:id="rId201" display="rodri@gmail.com1"/>
+    <hyperlink ref="F75" r:id="rId202" display="rodri@gmail.com1"/>
+    <hyperlink ref="F76" r:id="rId203" display="rodri@gmail.com1"/>
+    <hyperlink ref="F77" r:id="rId204" display="rodri@gmail.com1"/>
+    <hyperlink ref="F78" r:id="rId205" display="rodri@gmail.com1"/>
+    <hyperlink ref="F79" r:id="rId206" display="rodri@gmail.com1"/>
+    <hyperlink ref="F80" r:id="rId207" display="rodri@gmail.com1"/>
+    <hyperlink ref="F81" r:id="rId208" display="rodri@gmail.com1"/>
+    <hyperlink ref="F82" r:id="rId209" display="rodri@gmail.com1"/>
+    <hyperlink ref="F83" r:id="rId210" display="rodri@gmail.com1"/>
+    <hyperlink ref="F84" r:id="rId211" display="rodri@gmail.com1"/>
+    <hyperlink ref="F85" r:id="rId212" display="rodri@gmail.com1"/>
+    <hyperlink ref="F86" r:id="rId213" display="rodri@gmail.com1"/>
+    <hyperlink ref="F87" r:id="rId214" display="rodri@gmail.com1"/>
+    <hyperlink ref="F88" r:id="rId215" display="rodri@gmail.com1"/>
+    <hyperlink ref="F89" r:id="rId216" display="rodri@gmail.com1"/>
+    <hyperlink ref="F90" r:id="rId217" display="rodri@gmail.com1"/>
+    <hyperlink ref="F91" r:id="rId218" display="rodri@gmail.com1"/>
+    <hyperlink ref="F92" r:id="rId219" display="rodri@gmail.com1"/>
+    <hyperlink ref="F93" r:id="rId220" display="rodri@gmail.com1"/>
+    <hyperlink ref="F94" r:id="rId221" display="rodri@gmail.com1"/>
+    <hyperlink ref="F95" r:id="rId222" display="rodri@gmail.com1"/>
+    <hyperlink ref="F96" r:id="rId223" display="rodri@gmail.com1"/>
+    <hyperlink ref="F97" r:id="rId224" display="rodri@gmail.com1"/>
+    <hyperlink ref="F98" r:id="rId225" display="rodri@gmail.com1"/>
+    <hyperlink ref="F99" r:id="rId226" display="rodri@gmail.com1"/>
+    <hyperlink ref="F100" r:id="rId227" display="rodri@gmail.com1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId228"/>
 </worksheet>
 </file>